--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:43:20+00:00</t>
+    <t>2023-02-07T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:44:50+00:00</t>
+    <t>2023-02-08T09:57:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -865,8 +865,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t xml:space="preserve">integer
+</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -879,9 +879,6 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -906,10 +903,6 @@
     <t>valueInteger</t>
   </si>
   <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1009,6 +1002,9 @@
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1601,6 +1597,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
@@ -4855,7 +4855,7 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>272</v>
@@ -4867,7 +4867,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4876,37 +4876,37 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>272</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
@@ -4921,7 +4921,7 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>274</v>
@@ -4991,7 +4991,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -5000,27 +5000,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5046,16 +5046,16 @@
         <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5080,14 +5080,14 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5113,7 +5113,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -5128,7 +5128,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5139,14 +5139,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5168,16 +5168,16 @@
         <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5202,13 +5202,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5226,7 +5226,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5244,27 +5244,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5287,13 +5287,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5344,7 +5344,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5368,7 +5368,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5411,7 +5411,7 @@
         <v>139</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>141</v>
@@ -5452,19 +5452,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AC29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5488,7 +5488,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5525,19 +5525,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5586,7 +5586,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5607,10 +5607,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5647,13 +5647,13 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5704,7 +5704,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5728,7 +5728,7 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5771,7 +5771,7 @@
         <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>141</v>
@@ -5812,19 +5812,19 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5848,7 +5848,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5859,10 +5859,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5888,16 +5888,16 @@
         <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5907,46 +5907,46 @@
         <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5967,10 +5967,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5981,10 +5981,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6007,16 +6007,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6066,7 +6066,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6087,10 +6087,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6130,14 +6130,14 @@
         <v>112</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6166,25 +6166,25 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6205,10 +6205,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6245,17 +6245,17 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6302,7 +6302,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6323,10 +6323,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6363,19 +6363,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6424,7 +6424,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6445,10 +6445,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6459,10 +6459,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6485,19 +6485,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6546,7 +6546,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6567,10 +6567,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6581,10 +6581,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6595,7 +6595,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6607,19 +6607,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6668,7 +6668,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6689,10 +6689,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6703,10 +6703,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6732,13 +6732,13 @@
         <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6764,14 +6764,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6806,27 +6806,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6852,16 +6852,16 @@
         <v>191</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6886,14 +6886,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6931,10 +6931,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6945,10 +6945,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6971,16 +6971,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7030,7 +7030,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7048,27 +7048,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7091,16 +7091,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7150,7 +7150,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7168,27 +7168,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7211,19 +7211,19 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7272,7 +7272,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7284,19 +7284,19 @@
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7307,10 +7307,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7333,13 +7333,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7390,7 +7390,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7414,7 +7414,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7425,10 +7425,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7457,7 +7457,7 @@
         <v>139</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>141</v>
@@ -7510,7 +7510,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7534,7 +7534,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7545,14 +7545,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7574,10 +7574,10 @@
         <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7632,7 +7632,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7667,10 +7667,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7693,13 +7693,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7750,7 +7750,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7759,7 +7759,7 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>104</v>
@@ -7771,10 +7771,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7811,13 +7811,13 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7868,7 +7868,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7877,7 +7877,7 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>104</v>
@@ -7889,10 +7889,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7903,10 +7903,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7932,16 +7932,16 @@
         <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7969,11 +7969,11 @@
         <v>116</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8008,13 +8008,13 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8025,10 +8025,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8054,16 +8054,16 @@
         <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8088,14 +8088,14 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8130,13 +8130,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8147,10 +8147,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8173,17 +8173,17 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8232,7 +8232,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8256,7 +8256,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8267,10 +8267,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8293,13 +8293,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8350,7 +8350,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8371,10 +8371,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8385,10 +8385,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8411,16 +8411,16 @@
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8470,7 +8470,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8491,10 +8491,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8531,16 +8531,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8590,7 +8590,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8611,10 +8611,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8651,19 +8651,19 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8712,7 +8712,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8733,10 +8733,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8773,13 +8773,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8830,7 +8830,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8854,7 +8854,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8897,7 +8897,7 @@
         <v>139</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>141</v>
@@ -8950,7 +8950,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8974,7 +8974,7 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -8985,14 +8985,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9014,10 +9014,10 @@
         <v>138</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>141</v>
@@ -9072,7 +9072,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9107,10 +9107,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9136,13 +9136,13 @@
         <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>205</v>
@@ -9170,14 +9170,14 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>92</v>
@@ -9212,7 +9212,7 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>209</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9255,7 +9255,7 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>273</v>
+        <v>508</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>509</v>
@@ -9316,7 +9316,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9337,16 +9337,16 @@
         <v>511</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="62">
@@ -9389,7 +9389,7 @@
         <v>515</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9414,13 +9414,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9447,7 +9447,7 @@
         <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>104</v>
@@ -9462,7 +9462,7 @@
         <v>135</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9502,16 +9502,16 @@
         <v>191</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9536,13 +9536,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9578,19 +9578,19 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="64">
@@ -9630,10 +9630,10 @@
         <v>519</v>
       </c>
       <c r="N64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9703,10 +9703,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:25+00:00</t>
+    <t>2023-02-08T09:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:31+00:00</t>
+    <t>2023-02-08T11:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>92</v>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:02:36+00:00</t>
+    <t>2023-02-08T11:03:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:03:46+00:00</t>
+    <t>2023-02-08T12:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -954,10 +954,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-suppression</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -972,7 +969,178 @@
     <t>363713009 |Has interpretation|</t>
   </si>
   <si>
-    <t>Observation.interpretation.id</t>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>&lt; 123038009 |Specimen|</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
+</t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>&lt; 49062001 |Device|</t>
+  </si>
+  <si>
+    <t>OBX-17 / PRT -10</t>
+  </si>
+  <si>
+    <t>participation[typeCode=DEV]</t>
+  </si>
+  <si>
+    <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>OBX.7</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -991,379 +1159,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.interpretation.extension</t>
+    <t>Observation.referenceRange.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/CodeSystem/cs-vl-suppression</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-interpretation</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.interpretation.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>&lt; 123038009 |Specimen|</t>
-  </si>
-  <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
-    <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Observation.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
-</t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
-  </si>
-  <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
-  </si>
-  <si>
-    <t>&lt; 49062001 |Device|</t>
-  </si>
-  <si>
-    <t>OBX-17 / PRT -10</t>
-  </si>
-  <si>
-    <t>participation[typeCode=DEV]</t>
-  </si>
-  <si>
-    <t>424226004 |Using device|</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
-  </si>
-  <si>
-    <t>OBX.7</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1626,6 +1428,12 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1939,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1948,8 +1756,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1973,10 +1781,10 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.32421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -4178,7 +3986,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>
@@ -5202,13 +5010,11 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5244,27 +5050,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5287,16 +5093,20 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5344,19 +5154,19 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5365,10 +5175,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5379,21 +5189,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5405,16 +5215,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>141</v>
+        <v>317</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5440,69 +5250,69 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5513,7 +5323,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5522,22 +5332,22 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5562,13 +5372,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5592,7 +5402,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5607,10 +5417,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5621,10 +5431,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5647,15 +5457,17 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5704,7 +5516,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5716,44 +5528,44 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5765,16 +5577,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5812,57 +5624,57 @@
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5873,7 +5685,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5882,22 +5694,22 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5907,7 +5719,7 @@
         <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>82</v>
@@ -5946,19 +5758,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>358</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5967,10 +5779,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5981,10 +5793,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6004,20 +5816,18 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6066,7 +5876,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6078,7 +5888,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6087,10 +5897,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6101,21 +5911,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6124,21 +5934,21 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6162,11 +5972,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6184,19 +5996,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6205,10 +6017,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6219,43 +6031,45 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6280,11 +6094,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6302,19 +6118,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6323,10 +6139,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6337,10 +6153,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6360,23 +6176,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6424,7 +6236,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6433,7 +6245,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6445,10 +6257,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6459,10 +6271,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6482,23 +6294,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6546,7 +6354,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6555,7 +6363,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6567,10 +6375,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6581,10 +6389,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6607,19 +6415,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6644,13 +6452,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6668,13 +6476,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -6686,13 +6494,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6703,10 +6511,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6717,7 +6525,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6732,15 +6540,17 @@
         <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6764,13 +6574,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6788,13 +6598,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6812,21 +6622,21 @@
         <v>394</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>395</v>
+        <v>304</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6849,19 +6659,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>403</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6886,31 +6694,31 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6931,10 +6739,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6945,10 +6753,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6971,17 +6779,15 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N42" t="s" s="2">
         <v>410</v>
       </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7030,7 +6836,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7048,27 +6854,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7079,7 +6885,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7088,19 +6894,19 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7150,13 +6956,13 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7168,27 +6974,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7208,23 +7014,21 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7272,7 +7076,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7284,7 +7088,7 @@
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7293,10 +7097,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7307,10 +7111,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7321,7 +7125,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7330,19 +7134,23 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>309</v>
+        <v>426</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7390,19 +7198,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>311</v>
+        <v>425</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7411,10 +7219,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7425,21 +7233,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7451,17 +7259,15 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7510,19 +7316,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7534,7 +7340,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7545,14 +7351,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>436</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7565,26 +7371,24 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>437</v>
+        <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>438</v>
+        <v>368</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7632,7 +7436,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7656,7 +7460,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7667,42 +7471,46 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7750,19 +7558,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7771,10 +7579,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>446</v>
+        <v>135</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7785,10 +7593,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7796,7 +7604,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>92</v>
@@ -7808,19 +7616,23 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7844,13 +7656,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7868,16 +7680,16 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>104</v>
@@ -7886,16 +7698,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7903,10 +7715,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7926,22 +7738,22 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>453</v>
+        <v>275</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>455</v>
+        <v>277</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7966,13 +7778,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7990,7 +7802,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8008,27 +7820,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>459</v>
+        <v>280</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8039,7 +7851,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8054,16 +7866,16 @@
         <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>464</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8088,13 +7900,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>465</v>
+        <v>291</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>466</v>
+        <v>292</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8112,16 +7924,16 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8130,13 +7942,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>459</v>
+        <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8147,21 +7959,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8173,17 +7985,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>468</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>469</v>
+        <v>297</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>471</v>
+        <v>300</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8208,13 +8022,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8232,13 +8046,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
@@ -8250,27 +8064,27 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>472</v>
+        <v>304</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8281,7 +8095,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8293,16 +8107,20 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8350,13 +8168,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -8371,1347 +8189,15 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:16:58+00:00</t>
+    <t>2023-02-08T12:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:21:52+00:00</t>
+    <t>2023-02-08T12:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/viral-load-suppression_fig-28/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:30+00:00</t>
+    <t>2023-02-08T12:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
